--- a/code-Fall2025/NestedBinaryData_New.xlsx
+++ b/code-Fall2025/NestedBinaryData_New.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>m1</t>
   </si>
@@ -343,6 +343,348 @@
   </si>
   <si>
     <t>[0.0011879207278263232,0.0011910092452644219]</t>
+  </si>
+  <si>
+    <t>[0.0,1.0781444998806265e-8]</t>
+  </si>
+  <si>
+    <t>[[-471.88880469153526,9.769611608589912e-8,629.5357887695343],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-663.0106751557715,-662.5278898541876]</t>
+  </si>
+  <si>
+    <t>[-55.29743914540373,-55.14542220241978]</t>
+  </si>
+  <si>
+    <t>[0.001188256500831822,0.0011905615379571646]</t>
+  </si>
+  <si>
+    <t>[0.0,1.0781188148733002e-7]</t>
+  </si>
+  <si>
+    <t>[[-471.8888007328568,3.878746298369151e-6,629.5357834558492],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-663.1372086131202,-662.3871840874561]</t>
+  </si>
+  <si>
+    <t>[-55.29743914540373,-55.08504426325425]</t>
+  </si>
+  <si>
+    <t>[0.0011874815780874978,0.001191397417689605]</t>
+  </si>
+  <si>
+    <t>10 periods</t>
+  </si>
+  <si>
+    <t>[0.0,6.7929969537152775e-9]</t>
+  </si>
+  <si>
+    <t>[[-504.4703519526446,3.631963352290768e-8,662.1173363599655],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.8735100604699,-662.6507926466361]</t>
+  </si>
+  <si>
+    <t>[-55.2490791337526,-55.18456908548865]</t>
+  </si>
+  <si>
+    <t>[0.0011887462163960398,0.001189975196115308]</t>
+  </si>
+  <si>
+    <t>[-1.1298164471101128e-10,1.6286904768968227e-7]</t>
+  </si>
+  <si>
+    <t>[[-504.47034506191994,3.293398776804679e-6,658.9322138491773],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.7881343948371,-662.6583903784801]</t>
+  </si>
+  <si>
+    <t>[-55.24743168113561,-55.21422504020964]</t>
+  </si>
+  <si>
+    <t>[0.000603017328658939,0.0021261423983429933]</t>
+  </si>
+  <si>
+    <t>1000 periods</t>
+  </si>
+  <si>
+    <t>[-1.1298164471101128e-10,8.050007843498019e-7]</t>
+  </si>
+  <si>
+    <t>[[-504.4703217379358,1.0027648045252135e-8,658.9321822449972],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.7881343948371,-662.6539463266517]</t>
+  </si>
+  <si>
+    <t>[0.0006029732550007379,0.0021262320716444023]</t>
+  </si>
+  <si>
+    <t>[0.0,1.358568313198658e-7]</t>
+  </si>
+  <si>
+    <t>[[-504.4703468413773,4.872513962084213e-6,662.1173292377264],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.9005313114848,-662.5903564594074]</t>
+  </si>
+  <si>
+    <t>[-55.25288634700786,-55.169927711089144]</t>
+  </si>
+  <si>
+    <t>[0.0011859136941539837,0.0011929711146900761]</t>
+  </si>
+  <si>
+    <t>[0.0,1.358495968590231e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,871.0757869318388],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.9458528270453,-662.6193176854196]</t>
+  </si>
+  <si>
+    <t>[-55.22793749999998,-55.1855397939011]</t>
+  </si>
+  <si>
+    <t>[0.0011886340911134252,0.0011902173943248693]</t>
+  </si>
+  <si>
+    <t>[0.0,6.79247055991333e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,871.075740526855],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[0.001188632926980292,0.0011902173943248693]</t>
+  </si>
+  <si>
+    <t>[0.0,6.792831071774744e-7]</t>
+  </si>
+  <si>
+    <t>[[-356.7143836650414,6.27836087119249e-7,775.4944139521754],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.9333788148241,-662.6474856434953]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-55.17464782243563]</t>
+  </si>
+  <si>
+    <t>[0.001188689556688509,0.0011902116616685833]</t>
+  </si>
+  <si>
+    <t>[0.0,6.734134281832379e-7]</t>
+  </si>
+  <si>
+    <t>[[-617.8474535916469,7.5612834677940555e-6,514.3613547194205],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.8736096627657,-662.6049706857738]</t>
+  </si>
+  <si>
+    <t>[-55.27593288950135,-55.118377120074186]</t>
+  </si>
+  <si>
+    <t>[0.00015758893376436377,0.004695947199824142]</t>
+  </si>
+  <si>
+    <t>[-3.7361109517716217e-6,1.661804515774645e-7]</t>
+  </si>
+  <si>
+    <t>[[-713.4287331238917,2.765404633464641e-5,157.64698992727145],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-662.9406994963356,-662.5488503379065]</t>
+  </si>
+  <si>
+    <t>[-55.39174532843313,-54.98994802099071]</t>
+  </si>
+  <si>
+    <t>[6.646256433772898e-7,0.0360047150700416]</t>
+  </si>
+  <si>
+    <t>[0.0,2.485330139911897e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,0.0],[-617.8474942337846,-8.097176547039453e-7,-199.06744854741493]]</t>
+  </si>
+  <si>
+    <t>[-662.899523185806,-662.6051793063198]</t>
+  </si>
+  <si>
+    <t>[-55.36535809872099,-55.10632033331888]</t>
+  </si>
+  <si>
+    <t>[5.1471245509828134e-5,0.007691206268885634]</t>
+  </si>
+  <si>
+    <t>[0.0,6.792832398644907e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,0.0],[-356.71443572312046,-1.7444303779257098e-7,-460.2005269298792]]</t>
+  </si>
+  <si>
+    <t>[-662.9243492072951,-662.6538365542074]</t>
+  </si>
+  <si>
+    <t>[-55.22889282419558,-55.183247580827484]</t>
+  </si>
+  <si>
+    <t>[0.0011887697022726286,0.0011901412806690327]</t>
+  </si>
+  <si>
+    <t>[0.0,6.792419237998258e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,0.0],[0.0,0.0,-555.7818865681193]]</t>
+  </si>
+  <si>
+    <t>[-662.9359130866245,-662.6269775431896]</t>
+  </si>
+  <si>
+    <t>[-55.22898171096444,-55.18694781478047]</t>
+  </si>
+  <si>
+    <t>[0.0011887257351435188,0.0011901406752089516]</t>
+  </si>
+  <si>
+    <t>[0.0,2.932107293954703e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,951.086699838857],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-332.0571735303532,-331.36493929018195]</t>
+  </si>
+  <si>
+    <t>[-55.22793749999998,-55.19070232069622]</t>
+  </si>
+  <si>
+    <t>[0.003344063155279478,0.0033775271966246414]</t>
+  </si>
+  <si>
+    <t>[0.0,1.4916821360388002e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,1001.1927959399096],[0.0,0.0,1001.1928214012812]]</t>
+  </si>
+  <si>
+    <t>[-222.56005889668657,-220.91174999999993]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-55.06164558133857]</t>
+  </si>
+  <si>
+    <t>[0.0060406602144802216,0.006272807509929193]</t>
+  </si>
+  <si>
+    <t>[-5.747780176552941e-13,9.138780228301828e-8]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,1043.4341845407187],[0.0,0.0,1043.434203718758]]</t>
+  </si>
+  <si>
+    <t>[-168.85308913822368,-165.68381250000004]</t>
+  </si>
+  <si>
+    <t>[-55.22793749999999,-54.725395732012956]</t>
+  </si>
+  <si>
+    <t>[0.008925424810446832,0.009895651271489895]</t>
+  </si>
+  <si>
+    <t>[-1.0566228644772879e-11,6.29002228753402e-8]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,1080.6495930887465],[0.0,0.0,1080.6496086264265]]</t>
+  </si>
+  <si>
+    <t>[-137.9765039143088,-132.54705]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-53.99876809279869]</t>
+  </si>
+  <si>
+    <t>[0.011418918905135559,0.014443421987190706]</t>
+  </si>
+  <si>
+    <t>[-4.0198705961511365e-12,5.246950205283302e-13]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,1114.2949064487416],[0.0,0.0,1114.2949064562672]]</t>
+  </si>
+  <si>
+    <t>[-116.01655296247097,-110.45587499999993]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-53.64078607526884]</t>
+  </si>
+  <si>
+    <t>[0.017480042265861025,0.01842179867442232]</t>
+  </si>
+  <si>
+    <t>[-1.063249188269842e-10,3.2694645086893e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,946.5822643856478],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-332.239492717499,-331.3579223403833]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-55.17363927233366]</t>
+  </si>
+  <si>
+    <t>[0.0021789250465074758,0.004944416628113242]</t>
+  </si>
+  <si>
+    <t>[-3.0170333924593873e-10,4.1363332462963476e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,932.4740361145045],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-332.4374163768931,-331.3479240813606]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-55.145367156074265]</t>
+  </si>
+  <si>
+    <t>[0.0013066725129831731,0.007195777008735051]</t>
+  </si>
+  <si>
+    <t>[-9.831977469904382e-10,2.98859389651941e-7]</t>
+  </si>
+  <si>
+    <t>[[0.0,0.0,906.4973830581029],[0.0,0.0,906.4974371332742]]</t>
+  </si>
+  <si>
+    <t>[-332.6494551857336,-331.3298973018389]</t>
+  </si>
+  <si>
+    <t>[-55.227937499999996,-55.10383051195096]</t>
+  </si>
+  <si>
+    <t>[0.0006630430851581212,0.010771524933844163]</t>
+  </si>
+  <si>
+    <t>[-1.18368997479053e-6,1.546153149766992e-8]</t>
+  </si>
+  <si>
+    <t>[[-728.1402029509634,3.046517058180598e-6,222.94649564985588],[0.0,0.0,0.0]]</t>
+  </si>
+  <si>
+    <t>[-331.79107850024593,-331.01701959628554]</t>
+  </si>
+  <si>
+    <t>[-55.40074735406453,-54.589295637631395]</t>
+  </si>
+  <si>
+    <t>[4.016721082829459e-6,0.0668803053158701]</t>
   </si>
 </sst>
 </file>
@@ -778,7 +1120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE073501-CAF1-7547-9F20-DE970FECDDD2}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1650,6 +1992,1883 @@
       </c>
       <c r="AA11">
         <v>42.87890374515214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12">
+        <v>1.5</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>5.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+      <c r="F12">
+        <v>80.0</v>
+      </c>
+      <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12">
+        <v>0.0</v>
+      </c>
+      <c r="J12">
+        <v>45.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12">
+        <v>0.01</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <v>25.561999797821045</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>420465</v>
+      </c>
+      <c r="Y12">
+        <v>2.8303594356514126e-5</v>
+      </c>
+      <c r="Z12">
+        <v>42.878903603641845</v>
+      </c>
+      <c r="AA12">
+        <v>42.87890374515214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13">
+        <v>1.5</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>5.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+      <c r="F13">
+        <v>80.0</v>
+      </c>
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13">
+        <v>0.0</v>
+      </c>
+      <c r="J13">
+        <v>45.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13">
+        <v>60.34999990463257</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>13</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>420467</v>
+      </c>
+      <c r="Y13">
+        <v>2.5499118800815618e-5</v>
+      </c>
+      <c r="Z13">
+        <v>45.000000000254346</v>
+      </c>
+      <c r="AA13">
+        <v>45.00000012772982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14">
+        <v>1.5</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>5.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+      <c r="F14">
+        <v>80.0</v>
+      </c>
+      <c r="G14">
+        <v>0.4</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>45.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14">
+        <v>0.01</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14">
+        <v>416.3400001525879</v>
+      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>14</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>4204668</v>
+      </c>
+      <c r="Y14">
+        <v>2.5499118800815618e-5</v>
+      </c>
+      <c r="Z14">
+        <v>45.000000000254346</v>
+      </c>
+      <c r="AA14">
+        <v>45.00000012772982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15">
+        <v>1.5</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>5.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+      <c r="F15">
+        <v>80.0</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15">
+        <v>0.0</v>
+      </c>
+      <c r="J15">
+        <v>45.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15">
+        <v>0.01</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>10.901999950408936</v>
+      </c>
+      <c r="T15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>264932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16">
+        <v>1.5</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>5.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+      <c r="F16">
+        <v>80.0</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>45.0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>10.64299988746643</v>
+      </c>
+      <c r="T16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>264932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>5.0</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>80.0</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>45.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17">
+        <v>0.01</v>
+      </c>
+      <c r="M17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17">
+        <v>166.57500004768372</v>
+      </c>
+      <c r="T17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>17</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>5392486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18">
+        <v>1.5</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>5.0</v>
+      </c>
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <v>80.0</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18">
+        <v>0.0</v>
+      </c>
+      <c r="J18">
+        <v>45.0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18">
+        <v>0.01</v>
+      </c>
+      <c r="M18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18">
+        <v>857.5520000457764</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>26928341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19">
+        <v>1.5</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>5.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+      <c r="F19">
+        <v>80.0</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19">
+        <v>30.0</v>
+      </c>
+      <c r="J19">
+        <v>45.0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19">
+        <v>183.28399991989136</v>
+      </c>
+      <c r="T19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>19</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>5298406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20">
+        <v>1.5</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <v>5.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+      <c r="F20">
+        <v>80.0</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>0.0</v>
+      </c>
+      <c r="I20">
+        <v>0.0</v>
+      </c>
+      <c r="J20">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20">
+        <v>0.01</v>
+      </c>
+      <c r="M20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20">
+        <v>159.90400004386902</v>
+      </c>
+      <c r="T20" t="s">
+        <v>111</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>5298558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+      <c r="C21">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <v>5.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+      <c r="F21">
+        <v>80.0</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>0.0</v>
+      </c>
+      <c r="I21">
+        <v>0.0</v>
+      </c>
+      <c r="J21">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21">
+        <v>0.01</v>
+      </c>
+      <c r="M21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21">
+        <v>865.0420000553131</v>
+      </c>
+      <c r="T21" t="s">
+        <v>114</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>26492798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22">
+        <v>1.5</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>5.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+      <c r="F22">
+        <v>80.0</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+      <c r="I22">
+        <v>0.0</v>
+      </c>
+      <c r="J22">
+        <v>30.0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22">
+        <v>0.01</v>
+      </c>
+      <c r="M22" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22">
+        <v>805.1340000629425</v>
+      </c>
+      <c r="T22" t="s">
+        <v>119</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>22</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>26492954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23">
+        <v>1.5</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>5.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+      <c r="F23">
+        <v>80.0</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="I23">
+        <v>0.0</v>
+      </c>
+      <c r="J23">
+        <v>60.0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23">
+        <v>0.01</v>
+      </c>
+      <c r="M23" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23">
+        <v>795.0239999294281</v>
+      </c>
+      <c r="T23" t="s">
+        <v>124</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>23</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>26976475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24">
+        <v>1.5</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+      <c r="C24">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>5.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+      <c r="F24">
+        <v>80.0</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="I24">
+        <v>0.0</v>
+      </c>
+      <c r="J24">
+        <v>90.0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24">
+        <v>0.01</v>
+      </c>
+      <c r="M24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24">
+        <v>613.4849998950958</v>
+      </c>
+      <c r="T24" t="s">
+        <v>129</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>24</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>28603249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25">
+        <v>1.5</v>
+      </c>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+      <c r="C25">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <v>5.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+      <c r="F25">
+        <v>80.0</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="I25">
+        <v>0.0</v>
+      </c>
+      <c r="J25">
+        <v>120.0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25">
+        <v>0.01</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25">
+        <v>892.704999923706</v>
+      </c>
+      <c r="T25" t="s">
+        <v>134</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>25</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>27364106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26">
+        <v>1.5</v>
+      </c>
+      <c r="B26">
+        <v>1.5</v>
+      </c>
+      <c r="C26">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <v>5.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+      <c r="F26">
+        <v>80.0</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+      <c r="I26">
+        <v>0.0</v>
+      </c>
+      <c r="J26">
+        <v>150.0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26">
+        <v>0.01</v>
+      </c>
+      <c r="M26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26">
+        <v>782.5989999771118</v>
+      </c>
+      <c r="T26" t="s">
+        <v>139</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>26</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>26492895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27">
+        <v>1.5</v>
+      </c>
+      <c r="B27">
+        <v>1.5</v>
+      </c>
+      <c r="C27">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <v>5.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+      <c r="F27">
+        <v>80.0</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.0</v>
+      </c>
+      <c r="I27">
+        <v>0.0</v>
+      </c>
+      <c r="J27">
+        <v>180.0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27">
+        <v>0.01</v>
+      </c>
+      <c r="M27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27">
+        <v>675.0159997940063</v>
+      </c>
+      <c r="T27" t="s">
+        <v>144</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>27</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>26492729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28">
+        <v>1.5</v>
+      </c>
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+      <c r="C28">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <v>10.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+      <c r="F28">
+        <v>80.0</v>
+      </c>
+      <c r="G28">
+        <v>0.0</v>
+      </c>
+      <c r="H28">
+        <v>0.0</v>
+      </c>
+      <c r="I28">
+        <v>0.0</v>
+      </c>
+      <c r="J28">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28">
+        <v>0.01</v>
+      </c>
+      <c r="M28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28">
+        <v>365.5079998970032</v>
+      </c>
+      <c r="T28" t="s">
+        <v>149</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>28</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>12323573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29">
+        <v>1.5</v>
+      </c>
+      <c r="B29">
+        <v>1.5</v>
+      </c>
+      <c r="C29">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>15.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+      <c r="F29">
+        <v>80.0</v>
+      </c>
+      <c r="G29">
+        <v>0.0</v>
+      </c>
+      <c r="H29">
+        <v>0.0</v>
+      </c>
+      <c r="I29">
+        <v>0.0</v>
+      </c>
+      <c r="J29">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29">
+        <v>0.01</v>
+      </c>
+      <c r="M29" t="s">
+        <v>150</v>
+      </c>
+      <c r="N29" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29">
+        <v>206.29399991035461</v>
+      </c>
+      <c r="T29" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>29</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>6724788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30">
+        <v>1.5</v>
+      </c>
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <v>20.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+      <c r="F30">
+        <v>80.0</v>
+      </c>
+      <c r="G30">
+        <v>0.0</v>
+      </c>
+      <c r="H30">
+        <v>0.0</v>
+      </c>
+      <c r="I30">
+        <v>0.0</v>
+      </c>
+      <c r="J30">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30" t="s">
+        <v>155</v>
+      </c>
+      <c r="N30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30">
+        <v>151.92400002479553</v>
+      </c>
+      <c r="T30" t="s">
+        <v>159</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>30</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>4394573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31">
+        <v>1.5</v>
+      </c>
+      <c r="B31">
+        <v>1.5</v>
+      </c>
+      <c r="C31">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <v>25.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+      <c r="F31">
+        <v>80.0</v>
+      </c>
+      <c r="G31">
+        <v>0.0</v>
+      </c>
+      <c r="H31">
+        <v>0.0</v>
+      </c>
+      <c r="I31">
+        <v>0.0</v>
+      </c>
+      <c r="J31">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31">
+        <v>0.01</v>
+      </c>
+      <c r="M31" t="s">
+        <v>160</v>
+      </c>
+      <c r="N31" t="s">
+        <v>161</v>
+      </c>
+      <c r="O31" t="s">
+        <v>162</v>
+      </c>
+      <c r="P31" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31">
+        <v>80.6710000038147</v>
+      </c>
+      <c r="T31" t="s">
+        <v>164</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>31</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>3189669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32">
+        <v>1.5</v>
+      </c>
+      <c r="B32">
+        <v>1.5</v>
+      </c>
+      <c r="C32">
+        <v>1.0</v>
+      </c>
+      <c r="D32">
+        <v>30.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+      <c r="F32">
+        <v>80.0</v>
+      </c>
+      <c r="G32">
+        <v>0.0</v>
+      </c>
+      <c r="H32">
+        <v>0.0</v>
+      </c>
+      <c r="I32">
+        <v>0.0</v>
+      </c>
+      <c r="J32">
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" t="s">
+        <v>166</v>
+      </c>
+      <c r="O32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>0.7580001354217529</v>
+      </c>
+      <c r="T32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>32</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33">
+        <v>1.5</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+      <c r="C33">
+        <v>1.0</v>
+      </c>
+      <c r="D33">
+        <v>10.0</v>
+      </c>
+      <c r="E33">
+        <v>0.2</v>
+      </c>
+      <c r="F33">
+        <v>80.0</v>
+      </c>
+      <c r="G33">
+        <v>0.0</v>
+      </c>
+      <c r="H33">
+        <v>0.0</v>
+      </c>
+      <c r="I33">
+        <v>0.0</v>
+      </c>
+      <c r="J33">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33">
+        <v>0.01</v>
+      </c>
+      <c r="M33" t="s">
+        <v>170</v>
+      </c>
+      <c r="N33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33">
+        <v>396.047000169754</v>
+      </c>
+      <c r="T33" t="s">
+        <v>174</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>33</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>12454644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34">
+        <v>1.5</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34">
+        <v>1.0</v>
+      </c>
+      <c r="D34">
+        <v>10.0</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>80.0</v>
+      </c>
+      <c r="G34">
+        <v>0.0</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="I34">
+        <v>0.0</v>
+      </c>
+      <c r="J34">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34">
+        <v>0.01</v>
+      </c>
+      <c r="M34" t="s">
+        <v>175</v>
+      </c>
+      <c r="N34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>29</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34">
+        <v>407.14800000190735</v>
+      </c>
+      <c r="T34" t="s">
+        <v>179</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>34</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>12859597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35">
+        <v>1.5</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="C35">
+        <v>1.0</v>
+      </c>
+      <c r="D35">
+        <v>10.0</v>
+      </c>
+      <c r="E35">
+        <v>0.6</v>
+      </c>
+      <c r="F35">
+        <v>80.0</v>
+      </c>
+      <c r="G35">
+        <v>0.0</v>
+      </c>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="I35">
+        <v>0.0</v>
+      </c>
+      <c r="J35">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35">
+        <v>0.01</v>
+      </c>
+      <c r="M35" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" t="s">
+        <v>181</v>
+      </c>
+      <c r="O35" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35">
+        <v>867.1750001907349</v>
+      </c>
+      <c r="T35" t="s">
+        <v>184</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>35</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>13691204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36">
+        <v>1.5</v>
+      </c>
+      <c r="B36">
+        <v>1.5</v>
+      </c>
+      <c r="C36">
+        <v>1.0</v>
+      </c>
+      <c r="D36">
+        <v>10.0</v>
+      </c>
+      <c r="E36">
+        <v>0.0</v>
+      </c>
+      <c r="F36">
+        <v>80.0</v>
+      </c>
+      <c r="G36">
+        <v>0.0</v>
+      </c>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="I36">
+        <v>0.0</v>
+      </c>
+      <c r="J36">
+        <v>90.0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36">
+        <v>0.01</v>
+      </c>
+      <c r="M36" t="s">
+        <v>185</v>
+      </c>
+      <c r="N36" t="s">
+        <v>186</v>
+      </c>
+      <c r="O36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P36" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36">
+        <v>429.8430001735687</v>
+      </c>
+      <c r="T36" t="s">
+        <v>189</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>36</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>13101809</v>
       </c>
     </row>
   </sheetData>
